--- a/Meetings/Doku/Struktur_Doku - 2015.10.12 - EinkaufsApp Übersicht bis dato - AK.xlsx
+++ b/Meetings/Doku/Struktur_Doku - 2015.10.12 - EinkaufsApp Übersicht bis dato - AK.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dang\Desktop\EinkaufsApp\EinkaufsApp-Doku\Meetings\Doku\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="alle" sheetId="3" r:id="rId1"/>
-    <sheet name="Design" sheetId="1" r:id="rId2"/>
-    <sheet name="Dev" sheetId="2" r:id="rId3"/>
-    <sheet name="Doku" sheetId="7" r:id="rId4"/>
-    <sheet name="genutzte Links" sheetId="8" r:id="rId5"/>
-    <sheet name="Tools" sheetId="4" r:id="rId6"/>
-    <sheet name="Telkos, Besprechungstermine" sheetId="5" r:id="rId7"/>
-    <sheet name="Zusatzinfos" sheetId="6" r:id="rId8"/>
+    <sheet name="Skilltabelle" sheetId="9" r:id="rId2"/>
+    <sheet name="Design" sheetId="1" r:id="rId3"/>
+    <sheet name="Dev" sheetId="2" r:id="rId4"/>
+    <sheet name="Doku" sheetId="7" r:id="rId5"/>
+    <sheet name="genutzte Links" sheetId="8" r:id="rId6"/>
+    <sheet name="Tools" sheetId="4" r:id="rId7"/>
+    <sheet name="Telkos, Besprechungstermine" sheetId="5" r:id="rId8"/>
+    <sheet name="Zusatzinfos" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Telkos, Besprechungstermine'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Telkos, Besprechungstermine'!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
   <si>
     <t>Datum</t>
   </si>
@@ -1406,6 +1412,96 @@
   <si>
     <t>Hilfslink: www.tellsbells.de/dokuwebsite/tbdokumentation.pdf --&gt; Hilfe für Dokumentation
 Erstellen einer groben Vorlage für späteres Inhaltsverzeichnis</t>
+  </si>
+  <si>
+    <t>1wordsync Info</t>
+  </si>
+  <si>
+    <t>ToDos an Developer (Eric, Daniel, Viktor, Florian) : http://www.1worldsync.com/web/de/download-center;jsessionid=a05PcEljkQCNSCFdmLEhj7Sr.nodeA anschauen</t>
+  </si>
+  <si>
+    <t>An Thoma und Annika</t>
+  </si>
+  <si>
+    <t>*Struktur für Doku festlegen (was ist wichtig, was kann raus)
+*Liste anschauen und kommentieren</t>
+  </si>
+  <si>
+    <t>von Thomas an alle, Projektplan / Organisation der Gruppen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*grober Projektplan von Thomas erstellt
+*Brainstorming bis Freitag 23.10 eob zu folgenden Fragen:
+     -Arbeitspakete (siehe mind map, z.B.):
+        + Welche Arbeiten sind zu leisten?
+        + Wer übernimmt welche Aufgaben? (Z.B.: Wer macht diese Planung?)
+        + Wer hat welche Kompetenzen?
+   - Zeitplanung
+        + siehe Mind map
+        + Bitte frühzeitig darum kümmern, damit Abhängigkeiten von anderen Teams geklärt werden können.
+        + Wenn ihr die Einteilung in Planungs-, Definitions-, Durchführungs- und Abschlussphase als Gedankenstütze nutzen wollt, steht euch das natürlich frei. Um allerdings eine gewisse Konsistenz zu anderen Teams beizubehalten, bitte ich keine anderen Einteilungen zu verwenden. Im Zweifelsfall benutzt ihr einfach gar keine Einteilung.
+  -  Verantwortliche für Kommunikation
+        +siehe Mind map
+</t>
+  </si>
+  <si>
+    <t>an Jannis</t>
+  </si>
+  <si>
+    <t>Erwartungshorizont der Frau Wieland zusammenfassen</t>
+  </si>
+  <si>
+    <t>Hausaufgabe für Softwareprojekt</t>
+  </si>
+  <si>
+    <t>*an alle: 
+     + Skillübersicht erstellen (Status vor Projektstart) bis 26.10.2015 eob
+     + Es sind Aussagen zu folgenden Punkten zu machen:
+         -  Auswahl der Architektur und Umsetzung (wird mit Basti besprochen)
+        -  Auswahl der Versionsverwaltung und Umsetzung 
+      -  Auswahl des Vorgehensmodells und Umsetzung (Jannis mit Doku)
+*Doku: 
+     + ToDos und Infos aufnehmen
+     + an Thomas: Ablaufplan Fertigstellungstermine ausdenken, die vor Weihnachten liegen und mit Annika abstimmen, dass es danach noch genügend Zeit zum schreiben und Rücksprache halten gibt
+*Grundlage der Doku ist Aufgabenstellung (s. apl.pdf)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Moritz Karsten</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>*  Zwei Jahre Projektansprechpartner Messe Berlin
+*  Application Management</t>
+  </si>
+  <si>
+    <t>Skills vor Projektstart</t>
+  </si>
+  <si>
+    <t>Skills nach Projektstart</t>
+  </si>
+  <si>
+    <t>Huong Dang</t>
+  </si>
+  <si>
+    <t>Markus Hube</t>
+  </si>
+  <si>
+    <t>Projektleiter</t>
+  </si>
+  <si>
+    <t>*    Zwei Jahre PMO der operational services
+*    Zwei Jahre Programmiererfahrung (VBA)
+*   Bereits Vorarbeit zum Thema geleistet</t>
+  </si>
+  <si>
+    <t>* Zwei Jahre Vertrieb
+* Tools LaTex
+* Grundlagen VBA</t>
   </si>
 </sst>
 </file>
@@ -1575,19 +1671,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1601,7 +1692,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1609,20 +1699,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1631,14 +1714,37 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1655,9 +1761,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1695,9 +1801,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1732,7 +1838,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1767,7 +1873,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1941,82 +2047,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="121.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="225" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+      <c r="A2" s="42">
         <v>42279.657638888886</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="33" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="43">
         <v>42283.412499999999</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="44">
         <v>42283.412499999999</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="44">
         <v>42283.412499999999</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="45">
         <v>42284.313888888886</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2024,80 +2130,80 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="46">
         <v>42284.405555555553</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+      <c r="A8" s="42">
         <v>42284.418055555558</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="34" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="42">
         <v>42287</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="22" customFormat="1" ht="330" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+    <row r="10" spans="1:3" s="21" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
         <v>42287</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="22" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="31" t="s">
+    <row r="11" spans="1:3" s="21" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="46">
+      <c r="A12" s="48">
         <v>42289.418055555558</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="40" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
+      <c r="A13" s="42">
         <v>42290.511805555558</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="34" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="45">
         <v>42291.345833333333</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2108,7 +2214,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="45">
         <v>42292.513888888891</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2116,6 +2222,39 @@
       </c>
       <c r="C15" s="2" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45">
+        <v>42293.595833333333</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
+        <v>42296.447222222225</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A18" s="45">
+        <v>42297.324999999997</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2126,13 +2265,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,7 +2378,7 @@
       <c r="B3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2248,7 +2454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2326,17 +2532,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="75.42578125" customWidth="1"/>
   </cols>
@@ -2353,7 +2559,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="38">
         <v>42287</v>
       </c>
       <c r="B3" t="s">
@@ -2372,6 +2578,28 @@
       </c>
       <c r="C4" s="2" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42293.525694444441</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42296.622916666667</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2379,7 +2607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -2393,7 +2621,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2421,7 +2649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2432,46 +2660,46 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2481,7 +2709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -2673,7 +2901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>

--- a/Meetings/Doku/Struktur_Doku - 2015.10.12 - EinkaufsApp Übersicht bis dato - AK.xlsx
+++ b/Meetings/Doku/Struktur_Doku - 2015.10.12 - EinkaufsApp Übersicht bis dato - AK.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dang\Desktop\EinkaufsApp\EinkaufsApp-Doku\Meetings\Doku\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735"/>
   </bookViews>
   <sheets>
-    <sheet name="alle" sheetId="3" r:id="rId1"/>
-    <sheet name="Skilltabelle" sheetId="9" r:id="rId2"/>
+    <sheet name="Skilltabelle" sheetId="9" r:id="rId1"/>
+    <sheet name="alle" sheetId="3" r:id="rId2"/>
     <sheet name="Design" sheetId="1" r:id="rId3"/>
     <sheet name="Dev" sheetId="2" r:id="rId4"/>
     <sheet name="Doku" sheetId="7" r:id="rId5"/>
@@ -25,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Telkos, Besprechungstermine'!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="122">
   <si>
     <t>Datum</t>
   </si>
@@ -1420,9 +1415,6 @@
     <t>ToDos an Developer (Eric, Daniel, Viktor, Florian) : http://www.1worldsync.com/web/de/download-center;jsessionid=a05PcEljkQCNSCFdmLEhj7Sr.nodeA anschauen</t>
   </si>
   <si>
-    <t>An Thoma und Annika</t>
-  </si>
-  <si>
     <t>*Struktur für Doku festlegen (was ist wichtig, was kann raus)
 *Liste anschauen und kommentieren</t>
   </si>
@@ -1502,6 +1494,61 @@
     <t>* Zwei Jahre Vertrieb
 * Tools LaTex
 * Grundlagen VBA</t>
+  </si>
+  <si>
+    <t>Annika Köstler</t>
+  </si>
+  <si>
+    <t>Michael Hein</t>
+  </si>
+  <si>
+    <t>Entwicklung</t>
+  </si>
+  <si>
+    <t>* Zwei Jahre Applikations Administration
+* Java Erfahrung
+*VBA Erfahrung
+*Skript Programmierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Zwei Jahre Controlling
+* Tools Latex
+*Grundkenntnisse VBA
+*Protokollierung von Meetings </t>
+  </si>
+  <si>
+    <t>Annika</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Huong</t>
+  </si>
+  <si>
+    <t>Definitionsphase
+Projektorganisation</t>
+  </si>
+  <si>
+    <t>Planungsphase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quellen </t>
+  </si>
+  <si>
+    <t>Definitionsphase
+Projektziel/ Sachziel</t>
+  </si>
+  <si>
+    <t>Defintionsphase
+Projektorganisation</t>
+  </si>
+  <si>
+    <t>Planungsphase
+Tools</t>
+  </si>
+  <si>
+    <t>An Thomas und Annika</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1674,7 +1721,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1742,9 +1788,13 @@
     <xf numFmtId="22" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1761,9 +1811,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1801,9 +1851,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1838,7 +1888,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1873,7 +1923,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2047,13 +2097,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="16" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,149 +2201,174 @@
     <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="121.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="225" x14ac:dyDescent="0.25">
-      <c r="A2" s="42">
+      <c r="E1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A2" s="41">
         <v>42279.657638888886</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
+      <c r="E2" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="42">
         <v>42283.412499999999</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
         <v>42283.412499999999</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
         <v>42283.412499999999</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
         <v>42284.313888888886</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="46">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
         <v>42284.405555555553</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
+    <row r="8" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
         <v>42284.418055555558</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42">
+      <c r="E8" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
         <v>42287</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="21" customFormat="1" ht="330" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
+    <row r="10" spans="1:7" s="48" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
         <v>42287</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="21" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="28" t="s">
+      <c r="E10" s="49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="48" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="27" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="E11" s="49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="47">
         <v>42289.418055555558</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
+      <c r="E12" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
         <v>42290.511805555558</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="44">
         <v>42291.345833333333</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2213,8 +2378,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="44">
         <v>42292.513888888891</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2224,8 +2389,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+    <row r="16" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44">
         <v>42293.595833333333</v>
       </c>
       <c r="B16" t="s">
@@ -2236,25 +2401,25 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="44">
         <v>42296.447222222225</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="18" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
+      <c r="A18" s="44">
         <v>42297.324999999997</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2263,82 +2428,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="41" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,10 +2444,12 @@
     <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="101" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="3"/>
+    <col min="4" max="4" width="27.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2359,8 +2459,17 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>42283.475694444445</v>
       </c>
@@ -2371,18 +2480,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42283.484722222223</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>42283.540277777778</v>
       </c>
@@ -2392,8 +2504,11 @@
       <c r="C4" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D4" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>42283.627083333333</v>
       </c>
@@ -2404,7 +2519,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>42283.481249999997</v>
       </c>
@@ -2415,7 +2530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>42284.464583333334</v>
       </c>
@@ -2425,8 +2540,11 @@
       <c r="C7" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>42285.359027777777</v>
       </c>
@@ -2437,7 +2555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>42288</v>
       </c>
@@ -2446,6 +2564,9 @@
       </c>
       <c r="C9" s="6" t="s">
         <v>79</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2456,13 +2577,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,9 +2591,10 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="16" customWidth="1"/>
     <col min="3" max="3" width="110.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2482,8 +2604,17 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42283.557638888888</v>
       </c>
@@ -2493,8 +2624,11 @@
       <c r="C2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42288</v>
       </c>
@@ -2504,8 +2638,11 @@
       <c r="C3" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="D3" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>42289.911805555559</v>
       </c>
@@ -2515,8 +2652,11 @@
       <c r="C4" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>42292.5</v>
       </c>
@@ -2525,6 +2665,9 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2534,10 +2677,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2545,9 +2688,21 @@
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>42283.731944444444</v>
       </c>
@@ -2557,9 +2712,12 @@
       <c r="C2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="D2" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
         <v>42287</v>
       </c>
       <c r="B3" t="s">
@@ -2568,8 +2726,9 @@
       <c r="C3" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>42292</v>
       </c>
@@ -2579,27 +2738,33 @@
       <c r="C4" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42293.525694444441</v>
       </c>
       <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42296.622916666667</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2621,7 +2786,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2660,46 +2825,46 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Meetings/Doku/Struktur_Doku - 2015.10.12 - EinkaufsApp Übersicht bis dato - AK.xlsx
+++ b/Meetings/Doku/Struktur_Doku - 2015.10.12 - EinkaufsApp Übersicht bis dato - AK.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dang\Desktop\EinkaufsApp\EinkaufsApp-Doku\Meetings\Doku\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Skilltabelle" sheetId="9" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="135">
   <si>
     <t>Datum</t>
   </si>
@@ -1549,6 +1554,52 @@
   </si>
   <si>
     <t>An Thomas und Annika</t>
+  </si>
+  <si>
+    <t>Änderungen App Ablauf (Florian G.)</t>
+  </si>
+  <si>
+    <t>3 DIAs auf GitHub aktualisiert</t>
+  </si>
+  <si>
+    <t>Update 1worldsync</t>
+  </si>
+  <si>
+    <t>*95 Euro für ein Jahr Zugang zu 1worldsync (Idee: Grundinformationen bereits erhalten nach erstem Mal Produkt einscannen)
+*2/3 Mehrheit wird investiert
+*Skillliste nicht vergessen</t>
+  </si>
+  <si>
+    <t>Erwartungsupdate:
+* märkte auswählen:
+bei maps nach "einkaufen" suchen &lt;- API die eine liste an märkten und die Entfernung dazu zurückgibt?
+*Einkäufe:
+Einkäufe werden pro gruppe geführt (Pro einkauf kann es eine Gruppe geben, aber es kann für alle Leute eingekauft werden)
+mehrere Leute gleichzeitig an einem einkauf arbeiten (gleichzeitig Einkaufen) &lt;- on the fly updates bei allen Einkäufen?</t>
+  </si>
+  <si>
+    <t>Kurze Absprache</t>
+  </si>
+  <si>
+    <t>Flussdiagramm besprechen/diskutieren</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Statustelko-Ausgefallen,weil keiner da war</t>
+  </si>
+  <si>
+    <t>Statustelko App Entwicklung</t>
+  </si>
+  <si>
+    <t>Statustelko Doku - Inhalte absprechen</t>
+  </si>
+  <si>
+    <t>Markus und Thomas</t>
+  </si>
+  <si>
+    <t>Abstimmung Arbeitspakete</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1845,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1811,9 +1862,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1851,9 +1902,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1888,7 +1939,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1923,7 +1974,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2099,7 +2150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2187,13 +2238,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,6 +2473,17 @@
         <v>95</v>
       </c>
     </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="44">
+        <v>42300.467361111114</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2430,13 +2492,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,6 +2629,17 @@
       </c>
       <c r="D9" s="25" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>42300.463888888888</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2876,10 +2949,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,6 +3132,72 @@
         <v>44</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42297.395833333336</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42298.395833333336</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42300.375</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42303.416666666664</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42303.458333333336</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42304.395833333336</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3068,16 +3207,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3101,6 +3240,14 @@
     <row r="6" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>42300.470833333333</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
